--- a/config_5.11/lottery_config.xlsx
+++ b/config_5.11/lottery_config.xlsx
@@ -86,7 +86,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,109 +101,121 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,9 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,22 +239,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,14 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -297,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +489,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,47 +555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,11 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,154 +595,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,9 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1156,16 +1140,16 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" ht="26.25" customHeight="1" spans="1:7">
       <c r="A3" s="2">
@@ -1174,40 +1158,39 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="28.5" customHeight="1" spans="3:7">
-      <c r="C4" s="11"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="11"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="11"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="11"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="7:7">
-      <c r="G8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="11"/>
+      <c r="G10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,7 +1279,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1529,14 +1512,12 @@
       <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="8">
-        <v>4750</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8">
-        <v>350000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1556,19 +1537,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>4750</v>
       </c>
       <c r="E14" s="8">
-        <v>10</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1692,13 +1675,13 @@
     </row>
     <row r="22" ht="21" customHeight="1"/>
     <row r="23" ht="18.75" customHeight="1" spans="4:4">
-      <c r="D23" s="10"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
